--- a/src/main/resources/Data/data.xlsx
+++ b/src/main/resources/Data/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.cabral\IdeaProjects\TrabajoPOM-Cabral\src\main\resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florencia.lorenzati\IdeaProjects\TrabajoPOM-Lorenzati\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4C4EEF-2B97-4DAA-8DCC-F3066E20B778}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBF58BC-F1B9-4A75-9AE7-ED15A6214A65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="28455" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>TituloCP</t>
   </si>
@@ -31,79 +31,99 @@
     <t>Dato2</t>
   </si>
   <si>
-    <t>CPG - 002</t>
-  </si>
-  <si>
-    <t>CPG - 003</t>
-  </si>
-  <si>
-    <t>CPG - 004</t>
-  </si>
-  <si>
-    <t>CPG - 005</t>
-  </si>
-  <si>
-    <t>CPG - 006</t>
-  </si>
-  <si>
-    <t>CPG - 007</t>
-  </si>
-  <si>
-    <t>CPG - 008</t>
-  </si>
-  <si>
-    <t>CPG - 009</t>
-  </si>
-  <si>
-    <t>CPG - 010</t>
-  </si>
-  <si>
-    <t>CPG - 011</t>
-  </si>
-  <si>
-    <t>CPG - 001</t>
-  </si>
-  <si>
-    <t>Notebooks</t>
-  </si>
-  <si>
-    <t>Lenovo</t>
-  </si>
-  <si>
-    <t>Procesadores</t>
-  </si>
-  <si>
-    <t>Núcleos:</t>
-  </si>
-  <si>
-    <t>placas</t>
-  </si>
-  <si>
-    <t>teclado</t>
-  </si>
-  <si>
-    <t>Elegí tu Mother</t>
-  </si>
-  <si>
-    <t>Elegí tu Cooler</t>
-  </si>
-  <si>
-    <t>COMPRAR</t>
-  </si>
-  <si>
-    <t>El cupón ingresado no existe</t>
-  </si>
-  <si>
-    <t>No hay elementos en el carrito</t>
-  </si>
-  <si>
-    <t>aqr@qwr.com</t>
-  </si>
-  <si>
-    <t>CPG - 012</t>
-  </si>
-  <si>
-    <t>El email ingresado es incorrecto o no existe</t>
+    <t>FRG - 001</t>
+  </si>
+  <si>
+    <t>FRG - 002</t>
+  </si>
+  <si>
+    <t>FRG - 003</t>
+  </si>
+  <si>
+    <t>FRG - 004</t>
+  </si>
+  <si>
+    <t>FRG - 005</t>
+  </si>
+  <si>
+    <t>FRG - 006</t>
+  </si>
+  <si>
+    <t>FRG - 007</t>
+  </si>
+  <si>
+    <t>FRG - 008</t>
+  </si>
+  <si>
+    <t>FRG - 009</t>
+  </si>
+  <si>
+    <t>FRG - 010</t>
+  </si>
+  <si>
+    <t>FRG - 011</t>
+  </si>
+  <si>
+    <t>FRG - 012</t>
+  </si>
+  <si>
+    <t>Listado de Sucursales</t>
+  </si>
+  <si>
+    <t>Elija una de las opciones para confirmar su identidad</t>
+  </si>
+  <si>
+    <t>tele</t>
+  </si>
+  <si>
+    <t>Tele</t>
+  </si>
+  <si>
+    <t>heladera</t>
+  </si>
+  <si>
+    <t>Medios de pago y cuotas</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>Ingresa tu mail para continuar la compra.</t>
+  </si>
+  <si>
+    <t>Su carrito está vacio</t>
+  </si>
+  <si>
+    <t>Estás en 
+Tandil 
+(7000)</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Contactanos</t>
+  </si>
+  <si>
+    <t>Dato3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC </t>
+  </si>
+  <si>
+    <t>CuponFravega</t>
+  </si>
+  <si>
+    <t>Cupón CuponFravega inválido</t>
+  </si>
+  <si>
+    <t>Venta telefónica</t>
+  </si>
+  <si>
+    <t>Hogar</t>
   </si>
 </sst>
 </file>
@@ -196,7 +216,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -215,6 +235,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -555,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,9 +589,10 @@
     <col min="1" max="1" width="44.42578125" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
     <col min="3" max="3" width="39.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -578,132 +602,153 @@
       <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7000</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2">
-        <v>55</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="B13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="prueba_1@gmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B5" r:id="rId2" display="cuentanoexiste@gmail.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B8" r:id="rId3" display="prueba_1@gmail.com" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B9" r:id="rId4" display="prueba_1@gmail.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B7" r:id="rId5" display="prueba_1@gmail.com" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B13" r:id="rId6" xr:uid="{BB88551B-D9C7-4A6D-A2DA-1171529A8DB1}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>